--- a/data/trans_dic/P79A_R-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P79A_R-Dificultad-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.09985626517315099</v>
+        <v>0.1015992814045023</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.08416236889853999</v>
+        <v>0.08613125453307485</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.09987009837491631</v>
+        <v>0.09661294455383995</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1746024421388151</v>
+        <v>0.1771727626560475</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1376305269704513</v>
+        <v>0.137372905578795</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1466613092861102</v>
+        <v>0.1409708291653257</v>
       </c>
     </row>
     <row r="7">
@@ -625,7 +625,7 @@
         <v>0.0092139863405673</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.01312305005291058</v>
+        <v>0.01312305005291057</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.009776453235456712</v>
+        <v>0.009608548308661593</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.00540006929084741</v>
+        <v>0.005267696151970665</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.008540251530695854</v>
+        <v>0.008601464759008299</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03093390739405196</v>
+        <v>0.03092632717147051</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.01547211350434457</v>
+        <v>0.01571391820160029</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01940798235842037</v>
+        <v>0.01922828549438585</v>
       </c>
     </row>
     <row r="10">
@@ -694,10 +694,10 @@
         <v>0</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.002161286672303672</v>
+        <v>0.001708187165089607</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.001294644865835414</v>
+        <v>0.001157926364844301</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.0049896653290875</v>
+        <v>0.004179813812367468</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.01519155873263994</v>
+        <v>0.01401983146232057</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.008080009274869997</v>
+        <v>0.007622413002607024</v>
       </c>
     </row>
     <row r="13">
@@ -735,7 +735,7 @@
         <v>0.001857972676456607</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.001511285885565916</v>
+        <v>0.001511285885565915</v>
       </c>
     </row>
     <row r="14">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.005873175434390135</v>
+        <v>0.006711489737837391</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.009377245033932686</v>
+        <v>0.01095463689849391</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.005203321153060512</v>
+        <v>0.005493756501078643</v>
       </c>
     </row>
     <row r="16">
@@ -784,13 +784,13 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.02452014680614815</v>
+        <v>0.02452014680614814</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.02279413506262507</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.02363115810516343</v>
+        <v>0.02363115810516344</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01895816692266866</v>
+        <v>0.01885202787761117</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01807172757423135</v>
+        <v>0.01821514907807665</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01993293345824827</v>
+        <v>0.01987989301347097</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.03199390781251974</v>
+        <v>0.03211041436035228</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.02896595544233248</v>
+        <v>0.02916137159084725</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.02820533721628496</v>
+        <v>0.0286463626915995</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>49802</v>
+        <v>50672</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>52482</v>
+        <v>53710</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>112086</v>
+        <v>108431</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>87081</v>
+        <v>88363</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>85824</v>
+        <v>85663</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>164601</v>
+        <v>158214</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>9387</v>
+        <v>9226</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>6026</v>
+        <v>5878</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>17729</v>
+        <v>17857</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>29701</v>
+        <v>29694</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>17265</v>
+        <v>17534</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>40291</v>
+        <v>39918</v>
       </c>
     </row>
     <row r="12">
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>2264</v>
+        <v>1790</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>2711</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>5222</v>
+        <v>4374</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>15915</v>
+        <v>14688</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>16921</v>
+        <v>15962</v>
       </c>
     </row>
     <row r="16">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>5732</v>
+        <v>6550</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>8537</v>
+        <v>9972</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>9815</v>
+        <v>10363</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>65999</v>
+        <v>65629</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>66819</v>
+        <v>67349</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>143093</v>
+        <v>142712</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>111380</v>
+        <v>111785</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>107099</v>
+        <v>107822</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>202478</v>
+        <v>205644</v>
       </c>
     </row>
     <row r="24">
